--- a/results/synthetic_constraint_0.1_opt_constrained/k=0.1/CSG/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=0.1/CSG/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=0.1\CSG\dataset_09\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124E7F5A-15B6-44A9-804A-FD8BF71BFF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_CSG_dataset_09_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +731,19 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>412.1685762400243</v>
+        <v>412.16857624002432</v>
       </c>
       <c r="H2">
-        <v>95.39406122318621</v>
+        <v>95.394061223186213</v>
       </c>
       <c r="I2">
-        <v>316.7745150168381</v>
+        <v>316.77451501683811</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>316.7745150168381</v>
+        <v>316.77451501683811</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -666,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>412.1685762400243</v>
+        <v>412.16857624002432</v>
       </c>
       <c r="P2">
-        <v>95.39406122318621</v>
+        <v>95.394061223186213</v>
       </c>
       <c r="Q2">
         <v>1.463416106107962</v>
@@ -678,10 +767,10 @@
         <v>177.1733093957784</v>
       </c>
       <c r="S2">
-        <v>4.320694296426954</v>
+        <v>4.3206942964269537</v>
       </c>
       <c r="T2">
-        <v>4.320694296426954</v>
+        <v>4.3206942964269537</v>
       </c>
       <c r="U2">
         <v>1.463416106107962</v>
@@ -690,19 +779,19 @@
         <v>177.1733093957784</v>
       </c>
       <c r="W2">
-        <v>161.4450911389316</v>
+        <v>161.44509113893159</v>
       </c>
       <c r="X2">
-        <v>478.2196061557697</v>
+        <v>478.21960615576972</v>
       </c>
       <c r="Y2">
         <v>161.4450911389317</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,19 +811,19 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>415.8270981734128</v>
+        <v>415.82709817341282</v>
       </c>
       <c r="H3">
-        <v>69.38925228605243</v>
+        <v>69.389252286052425</v>
       </c>
       <c r="I3">
-        <v>346.4378458873604</v>
+        <v>346.43784588736042</v>
       </c>
       <c r="J3">
         <v>0.1</v>
       </c>
       <c r="K3">
-        <v>378.5815993689988</v>
+        <v>378.58159936899881</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -746,43 +835,43 @@
         <v>0.9150942530349756</v>
       </c>
       <c r="O3">
-        <v>467.5536963215355</v>
+        <v>467.55369632153548</v>
       </c>
       <c r="P3">
-        <v>88.97209695253665</v>
+        <v>88.972096952536646</v>
       </c>
       <c r="Q3">
-        <v>1.659191397386743</v>
+        <v>1.6591913973867429</v>
       </c>
       <c r="R3">
         <v>230.9598614978909</v>
       </c>
       <c r="S3">
-        <v>5.255059870859943</v>
+        <v>5.2550598708599434</v>
       </c>
       <c r="T3">
-        <v>5.992672992918186</v>
+        <v>5.9926729929181857</v>
       </c>
       <c r="U3">
         <v>1.790537555148052</v>
       </c>
       <c r="V3">
-        <v>222.1937837455407</v>
+        <v>222.19378374554071</v>
       </c>
       <c r="W3">
-        <v>131.9277607617929</v>
+        <v>131.92776076179291</v>
       </c>
       <c r="X3">
-        <v>478.3656066491532</v>
+        <v>478.36560664915322</v>
       </c>
       <c r="Y3">
-        <v>99.78400728015441</v>
+        <v>99.784007280154412</v>
       </c>
       <c r="Z3">
-        <v>1.322133319334344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>1.3221333193343441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,19 +891,19 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>493.1324871734296</v>
+        <v>493.13248717342958</v>
       </c>
       <c r="H4">
-        <v>54.1077787870728</v>
+        <v>54.107778787072803</v>
       </c>
       <c r="I4">
-        <v>439.0247083863568</v>
+        <v>439.02470838635679</v>
       </c>
       <c r="J4">
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>445.7972018263266</v>
+        <v>445.79720182632661</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -823,46 +912,46 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.9848081293192857</v>
+        <v>0.98480812931928574</v>
       </c>
       <c r="O4">
-        <v>521.2717009190546</v>
+        <v>521.27170091905464</v>
       </c>
       <c r="P4">
-        <v>75.47449909272805</v>
+        <v>75.474499092728053</v>
       </c>
       <c r="Q4">
-        <v>1.932476565865139</v>
+        <v>1.9324765658651391</v>
       </c>
       <c r="R4">
-        <v>299.9445010092199</v>
+        <v>299.94450100921989</v>
       </c>
       <c r="S4">
-        <v>6.906593712912485</v>
+        <v>6.9065937129124846</v>
       </c>
       <c r="T4">
-        <v>9.113892645898941</v>
+        <v>9.1138926458989413</v>
       </c>
       <c r="U4">
-        <v>2.209799913739943</v>
+        <v>2.2097999137399431</v>
       </c>
       <c r="V4">
-        <v>319.4573434900234</v>
+        <v>319.45734349002339</v>
       </c>
       <c r="W4">
-        <v>113.3865829202605</v>
+        <v>113.38658292026049</v>
       </c>
       <c r="X4">
-        <v>552.4112913066173</v>
+        <v>552.41129130661727</v>
       </c>
       <c r="Y4">
         <v>106.6140894802907</v>
       </c>
       <c r="Z4">
-        <v>1.063523437408541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>1.0635234374085409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,13 +971,13 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>433.5399583703214</v>
+        <v>433.53995837032141</v>
       </c>
       <c r="H5">
-        <v>60.73864121301624</v>
+        <v>60.738641213016237</v>
       </c>
       <c r="I5">
-        <v>372.8013171573052</v>
+        <v>372.80131715730522</v>
       </c>
       <c r="J5">
         <v>0.08</v>
@@ -903,46 +992,46 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9628803939936065</v>
+        <v>0.96288039399360648</v>
       </c>
       <c r="O5">
-        <v>450.4232113619458</v>
+        <v>450.42321136194579</v>
       </c>
       <c r="P5">
-        <v>63.25018397160873</v>
+        <v>63.250183971608728</v>
       </c>
       <c r="Q5">
-        <v>1.963089574247603</v>
+        <v>1.9630895742476031</v>
       </c>
       <c r="R5">
-        <v>263.0072506664292</v>
+        <v>263.00725066642917</v>
       </c>
       <c r="S5">
-        <v>7.121294881357633</v>
+        <v>7.1212948813576329</v>
       </c>
       <c r="T5">
-        <v>7.137794815821698</v>
+        <v>7.1377948158216977</v>
       </c>
       <c r="U5">
         <v>1.965403879323026</v>
       </c>
       <c r="V5">
-        <v>253.4253560924336</v>
+        <v>253.42535609243359</v>
       </c>
       <c r="W5">
-        <v>150.7723330148602</v>
+        <v>150.77233301486021</v>
       </c>
       <c r="X5">
-        <v>523.5736501721653</v>
+        <v>523.57365017216534</v>
       </c>
       <c r="Y5">
-        <v>136.4006227818282</v>
+        <v>136.40062278182819</v>
       </c>
       <c r="Z5">
-        <v>1.105363963447728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>1.1053639634477279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1051,19 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>454.4888636572894</v>
+        <v>454.48886365728941</v>
       </c>
       <c r="H6">
-        <v>56.19603851939264</v>
+        <v>56.196038519392637</v>
       </c>
       <c r="I6">
-        <v>398.2928251378968</v>
+        <v>398.29282513789678</v>
       </c>
       <c r="J6">
         <v>0.08</v>
       </c>
       <c r="K6">
-        <v>407.4759859994304</v>
+        <v>407.47598599943041</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -983,46 +1072,46 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9774633078339334</v>
+        <v>0.97746330783393343</v>
       </c>
       <c r="O6">
-        <v>489.2892406260157</v>
+        <v>489.28924062601573</v>
       </c>
       <c r="P6">
-        <v>81.81325462658531</v>
+        <v>81.813254626585305</v>
       </c>
       <c r="Q6">
         <v>1.788514541251961</v>
       </c>
       <c r="R6">
-        <v>261.1517904326333</v>
+        <v>261.15179043263328</v>
       </c>
       <c r="S6">
-        <v>5.980561986676187</v>
+        <v>5.9805619866761868</v>
       </c>
       <c r="T6">
-        <v>8.087560540418703</v>
+        <v>8.0875605404187034</v>
       </c>
       <c r="U6">
-        <v>2.090327145476739</v>
+        <v>2.0903271454767389</v>
       </c>
       <c r="V6">
-        <v>280.8247203525539</v>
+        <v>280.82472035255392</v>
       </c>
       <c r="W6">
         <v>114.4835289402855</v>
       </c>
       <c r="X6">
-        <v>512.7763540781823</v>
+        <v>512.77635407818229</v>
       </c>
       <c r="Y6">
         <v>105.3003680787519</v>
       </c>
       <c r="Z6">
-        <v>1.087209200015956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>1.0872092000159559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1042,19 +1131,19 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>424.5864417540092</v>
+        <v>424.58644175400917</v>
       </c>
       <c r="H7">
-        <v>47.28945461503116</v>
+        <v>47.289454615031161</v>
       </c>
       <c r="I7">
-        <v>377.2969871389781</v>
+        <v>377.29698713897812</v>
       </c>
       <c r="J7">
         <v>0.08</v>
       </c>
       <c r="K7">
-        <v>414.3483706240805</v>
+        <v>414.34837062408047</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1063,28 +1152,28 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9105791500294869</v>
+        <v>0.91057915002948686</v>
       </c>
       <c r="O7">
-        <v>481.6271516154353</v>
+        <v>481.62715161543531</v>
       </c>
       <c r="P7">
-        <v>67.27878099135478</v>
+        <v>67.278780991354779</v>
       </c>
       <c r="Q7">
-        <v>1.96832537328394</v>
+        <v>1.9683253732839401</v>
       </c>
       <c r="R7">
-        <v>281.9218389151837</v>
+        <v>281.92183891518368</v>
       </c>
       <c r="S7">
         <v>7.158678330948411</v>
       </c>
       <c r="T7">
-        <v>8.978459261381555</v>
+        <v>8.9784592613815555</v>
       </c>
       <c r="U7">
-        <v>2.19482829313713</v>
+        <v>2.1948282931371299</v>
       </c>
       <c r="V7">
         <v>273.5047541828834</v>
@@ -1093,16 +1182,16 @@
         <v>143.703535491125</v>
       </c>
       <c r="X7">
-        <v>521.0005226301031</v>
+        <v>521.00052263010309</v>
       </c>
       <c r="Y7">
         <v>106.6521520060226</v>
       </c>
       <c r="Z7">
-        <v>1.347403993151589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>1.3474039931515891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1122,19 +1211,19 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>455.6713765688178</v>
+        <v>455.67137656881778</v>
       </c>
       <c r="H8">
-        <v>63.39358000509296</v>
+        <v>63.393580005092957</v>
       </c>
       <c r="I8">
-        <v>392.2777965637249</v>
+        <v>392.27779656372491</v>
       </c>
       <c r="J8">
         <v>0.1</v>
       </c>
       <c r="K8">
-        <v>408.2192131333358</v>
+        <v>408.21921313333581</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1143,46 +1232,46 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.960948882226168</v>
+        <v>0.96094888222616803</v>
       </c>
       <c r="O8">
-        <v>475.9860232277125</v>
+        <v>475.98602322771251</v>
       </c>
       <c r="P8">
         <v>67.76681009437668</v>
       </c>
       <c r="Q8">
-        <v>1.94931594237587</v>
+        <v>1.9493159423758699</v>
       </c>
       <c r="R8">
-        <v>276.1202898524093</v>
+        <v>276.12028985240931</v>
       </c>
       <c r="S8">
-        <v>7.02388119737113</v>
+        <v>7.0238811973711304</v>
       </c>
       <c r="T8">
-        <v>7.187973553981489</v>
+        <v>7.1879735539814886</v>
       </c>
       <c r="U8">
-        <v>1.972409289724434</v>
+        <v>1.9724092897244341</v>
       </c>
       <c r="V8">
         <v>267.2397104527904</v>
       </c>
       <c r="W8">
-        <v>163.0628693077105</v>
+        <v>163.06286930771051</v>
       </c>
       <c r="X8">
-        <v>555.3406658714354</v>
+        <v>555.34066587143536</v>
       </c>
       <c r="Y8">
-        <v>147.1214527380995</v>
+        <v>147.12145273809949</v>
       </c>
       <c r="Z8">
-        <v>1.108355486388442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>1.1083554863884419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,19 +1291,19 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>482.4052648688771</v>
+        <v>482.40526486887711</v>
       </c>
       <c r="H9">
-        <v>78.44819710445111</v>
+        <v>78.448197104451111</v>
       </c>
       <c r="I9">
-        <v>403.9570677644259</v>
+        <v>403.95706776442591</v>
       </c>
       <c r="J9">
         <v>0.1</v>
       </c>
       <c r="K9">
-        <v>403.9570677644259</v>
+        <v>403.95706776442591</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1226,43 +1315,43 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>482.4052648688771</v>
+        <v>482.40526486887711</v>
       </c>
       <c r="P9">
-        <v>78.44819710445111</v>
+        <v>78.448197104451111</v>
       </c>
       <c r="Q9">
         <v>1.816346061805898</v>
       </c>
       <c r="R9">
-        <v>261.4679938979834</v>
+        <v>261.46799389798338</v>
       </c>
       <c r="S9">
-        <v>6.149348011485475</v>
+        <v>6.1493480114854746</v>
       </c>
       <c r="T9">
-        <v>6.149348011485475</v>
+        <v>6.1493480114854746</v>
       </c>
       <c r="U9">
         <v>1.816346061805898</v>
       </c>
       <c r="V9">
-        <v>261.4679938979833</v>
+        <v>261.46799389798332</v>
       </c>
       <c r="W9">
-        <v>133.7210888048595</v>
+        <v>133.72108880485951</v>
       </c>
       <c r="X9">
-        <v>537.6781565692854</v>
+        <v>537.67815656928542</v>
       </c>
       <c r="Y9">
-        <v>133.7210888048595</v>
+        <v>133.72108880485951</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1282,13 +1371,13 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>367.7029747247605</v>
+        <v>367.70297472476051</v>
       </c>
       <c r="H10">
-        <v>68.74162919434829</v>
+        <v>68.741629194348292</v>
       </c>
       <c r="I10">
-        <v>298.9613455304121</v>
+        <v>298.96134553041207</v>
       </c>
       <c r="J10">
         <v>0.08</v>
@@ -1303,46 +1392,46 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.9725746372186657</v>
+        <v>0.97257463721866566</v>
       </c>
       <c r="O10">
-        <v>398.8029626731476</v>
+        <v>398.80296267314759</v>
       </c>
       <c r="P10">
-        <v>91.41128897561912</v>
+        <v>91.411288975619115</v>
       </c>
       <c r="Q10">
-        <v>1.473098484428451</v>
+        <v>1.4730984844284509</v>
       </c>
       <c r="R10">
-        <v>172.7338424478928</v>
+        <v>172.73384244789281</v>
       </c>
       <c r="S10">
-        <v>4.36273207764869</v>
+        <v>4.3627320776486904</v>
       </c>
       <c r="T10">
-        <v>5.349058191291628</v>
+        <v>5.3490581912916282</v>
       </c>
       <c r="U10">
         <v>1.676920506400319</v>
       </c>
       <c r="V10">
-        <v>183.6870978910426</v>
+        <v>183.68709789104261</v>
       </c>
       <c r="W10">
         <v>148.6359382567644</v>
       </c>
       <c r="X10">
-        <v>447.5972837871765</v>
+        <v>447.59728378717648</v>
       </c>
       <c r="Y10">
         <v>140.2056100896481</v>
       </c>
       <c r="Z10">
-        <v>1.060128322694975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>1.0601283226949749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1362,13 +1451,13 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>497.8795435321354</v>
+        <v>497.87954353213541</v>
       </c>
       <c r="H11">
-        <v>76.40940889989116</v>
+        <v>76.409408899891162</v>
       </c>
       <c r="I11">
-        <v>421.4701346322443</v>
+        <v>421.47013463224431</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -1386,43 +1475,43 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>497.8795435321354</v>
+        <v>497.87954353213541</v>
       </c>
       <c r="P11">
-        <v>76.40940889989116</v>
+        <v>76.409408899891162</v>
       </c>
       <c r="Q11">
         <v>1.874252325579612</v>
       </c>
       <c r="R11">
-        <v>278.2596223054597</v>
+        <v>278.25962230545969</v>
       </c>
       <c r="S11">
-        <v>6.515945492844201</v>
+        <v>6.5159454928442013</v>
       </c>
       <c r="T11">
-        <v>6.515945492844201</v>
+        <v>6.5159454928442013</v>
       </c>
       <c r="U11">
         <v>1.874252325579612</v>
       </c>
       <c r="V11">
-        <v>278.2596223054597</v>
+        <v>278.25962230545969</v>
       </c>
       <c r="W11">
-        <v>140.7306297283507</v>
+        <v>140.73062972835069</v>
       </c>
       <c r="X11">
-        <v>562.2007643605949</v>
+        <v>562.20076436059492</v>
       </c>
       <c r="Y11">
-        <v>140.7306297283507</v>
+        <v>140.73062972835069</v>
       </c>
       <c r="Z11">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1531,19 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <v>474.2210506335059</v>
+        <v>474.22105063350591</v>
       </c>
       <c r="H12">
-        <v>115.7988070995273</v>
+        <v>115.79880709952729</v>
       </c>
       <c r="I12">
-        <v>358.4222435339786</v>
+        <v>358.42224353397859</v>
       </c>
       <c r="J12">
         <v>0.08</v>
       </c>
       <c r="K12">
-        <v>404.8735988084117</v>
+        <v>404.87359880841171</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1463,25 +1552,25 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>0.8852694880299812</v>
+        <v>0.88526948802998118</v>
       </c>
       <c r="O12">
-        <v>462.6012897639939</v>
+        <v>462.60128976399392</v>
       </c>
       <c r="P12">
-        <v>57.72769095558216</v>
+        <v>57.727690955582162</v>
       </c>
       <c r="Q12">
-        <v>2.081128566901605</v>
+        <v>2.0811285669016049</v>
       </c>
       <c r="R12">
-        <v>284.7348520594823</v>
+        <v>284.73485205948231</v>
       </c>
       <c r="S12">
-        <v>8.01350759239507</v>
+        <v>8.0135075923950705</v>
       </c>
       <c r="T12">
-        <v>4.095215335214293</v>
+        <v>4.0952153352142933</v>
       </c>
       <c r="U12">
         <v>1.40981930083441</v>
@@ -1490,19 +1579,19 @@
         <v>195.1668502714644</v>
       </c>
       <c r="W12">
-        <v>152.8689008714745</v>
+        <v>152.86890087147449</v>
       </c>
       <c r="X12">
-        <v>511.2911444054531</v>
+        <v>511.29114440545311</v>
       </c>
       <c r="Y12">
         <v>106.4175455970414</v>
       </c>
       <c r="Z12">
-        <v>1.436500907945433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>1.4365009079454329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1522,19 +1611,19 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>489.2470391827875</v>
+        <v>489.24703918278749</v>
       </c>
       <c r="H13">
-        <v>69.40477539870901</v>
+        <v>69.404775398709006</v>
       </c>
       <c r="I13">
-        <v>419.8422637840785</v>
+        <v>419.84226378407851</v>
       </c>
       <c r="J13">
         <v>0.1</v>
       </c>
       <c r="K13">
-        <v>425.9044136119894</v>
+        <v>425.90441361198941</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1546,34 +1635,34 @@
         <v>0.9857664075924939</v>
       </c>
       <c r="O13">
-        <v>508.7130978629065</v>
+        <v>508.71309786290652</v>
       </c>
       <c r="P13">
-        <v>82.8086842509171</v>
+        <v>82.808684250917096</v>
       </c>
       <c r="Q13">
-        <v>1.815351261063907</v>
+        <v>1.8153512610639071</v>
       </c>
       <c r="R13">
-        <v>275.5775642300441</v>
+        <v>275.57756423004412</v>
       </c>
       <c r="S13">
-        <v>6.143233677297228</v>
+        <v>6.1432336772972276</v>
       </c>
       <c r="T13">
-        <v>7.04918409968499</v>
+        <v>7.0491840996849904</v>
       </c>
       <c r="U13">
         <v>1.952911879585745</v>
       </c>
       <c r="V13">
-        <v>284.3008534079592</v>
+        <v>284.30085340795921</v>
       </c>
       <c r="W13">
         <v>126.3267319285459</v>
       </c>
       <c r="X13">
-        <v>546.1689957126243</v>
+        <v>546.16899571262434</v>
       </c>
       <c r="Y13">
         <v>120.2645821006349</v>
@@ -1582,7 +1671,7 @@
         <v>1.050406775810673</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,19 +1691,19 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>421.4541034564405</v>
+        <v>421.45410345644052</v>
       </c>
       <c r="H14">
-        <v>61.91172594317803</v>
+        <v>61.911725943178027</v>
       </c>
       <c r="I14">
-        <v>359.5423775132624</v>
+        <v>359.54237751326241</v>
       </c>
       <c r="J14">
         <v>0.06</v>
       </c>
       <c r="K14">
-        <v>400.2783421047603</v>
+        <v>400.27834210476033</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -1623,46 +1712,46 @@
         <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.8982309050814533</v>
+        <v>0.89823090508145331</v>
       </c>
       <c r="O14">
-        <v>491.9246229971805</v>
+        <v>491.92462299718051</v>
       </c>
       <c r="P14">
-        <v>91.64628089242009</v>
+        <v>91.646280892420094</v>
       </c>
       <c r="Q14">
         <v>1.680389105463324</v>
       </c>
       <c r="R14">
-        <v>246.2769301369061</v>
+        <v>246.27693013690609</v>
       </c>
       <c r="S14">
-        <v>5.367644144497595</v>
+        <v>5.3676441444975946</v>
       </c>
       <c r="T14">
-        <v>6.807338949704728</v>
+        <v>6.8073389497047279</v>
       </c>
       <c r="U14">
-        <v>1.918001287512109</v>
+        <v>1.9180012875121091</v>
       </c>
       <c r="V14">
         <v>240.7956074421501</v>
       </c>
       <c r="W14">
-        <v>150.1873592406913</v>
+        <v>150.18735924069131</v>
       </c>
       <c r="X14">
-        <v>509.7297367539537</v>
+        <v>509.72973675395372</v>
       </c>
       <c r="Y14">
         <v>109.4513946491934</v>
       </c>
       <c r="Z14">
-        <v>1.37218314779873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>1.3721831477987301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1682,19 +1771,19 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <v>523.5325444717541</v>
+        <v>523.53254447175414</v>
       </c>
       <c r="H15">
         <v>101.6206668222776</v>
       </c>
       <c r="I15">
-        <v>421.9118776494765</v>
+        <v>421.91187764947648</v>
       </c>
       <c r="J15">
         <v>0.06</v>
       </c>
       <c r="K15">
-        <v>469.3286578159872</v>
+        <v>469.32865781598719</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1703,37 +1792,37 @@
         <v>0.1</v>
       </c>
       <c r="N15">
-        <v>0.8989689221468727</v>
+        <v>0.89896892214687274</v>
       </c>
       <c r="O15">
         <v>555.2819634861354</v>
       </c>
       <c r="P15">
-        <v>85.95330567014793</v>
+        <v>85.953305670147927</v>
       </c>
       <c r="Q15">
-        <v>1.865671835579049</v>
+        <v>1.8656718355790489</v>
       </c>
       <c r="R15">
         <v>308.9679962522755</v>
       </c>
       <c r="S15">
-        <v>6.460274670727271</v>
+        <v>6.4602746707272711</v>
       </c>
       <c r="T15">
-        <v>5.151831422119579</v>
+        <v>5.1518314221195789</v>
       </c>
       <c r="U15">
         <v>1.63935226740483</v>
       </c>
       <c r="V15">
-        <v>255.319807079185</v>
+        <v>255.31980707918501</v>
       </c>
       <c r="W15">
-        <v>164.4077988011961</v>
+        <v>164.40779880119609</v>
       </c>
       <c r="X15">
-        <v>586.3196764506727</v>
+        <v>586.31967645067266</v>
       </c>
       <c r="Y15">
         <v>116.9910186346854</v>
@@ -1742,7 +1831,7 @@
         <v>1.405302737935582</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,19 +1851,19 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>483.1438353213322</v>
+        <v>483.14383532133218</v>
       </c>
       <c r="H16">
-        <v>94.29554822469821</v>
+        <v>94.295548224698209</v>
       </c>
       <c r="I16">
-        <v>388.848287096634</v>
+        <v>388.84828709663401</v>
       </c>
       <c r="J16">
         <v>0.06</v>
       </c>
       <c r="K16">
-        <v>394.0685958941361</v>
+        <v>394.06859589413608</v>
       </c>
       <c r="L16">
         <v>4</v>
@@ -1783,46 +1872,46 @@
         <v>0.08</v>
       </c>
       <c r="N16">
-        <v>0.9867527916411167</v>
+        <v>0.98675279164111673</v>
       </c>
       <c r="O16">
-        <v>515.1078073503331</v>
+        <v>515.10780735033313</v>
       </c>
       <c r="P16">
-        <v>121.0392114561971</v>
+        <v>121.03921145619709</v>
       </c>
       <c r="Q16">
-        <v>1.448261658695556</v>
+        <v>1.4482616586955559</v>
       </c>
       <c r="R16">
         <v>218.772146743382</v>
       </c>
       <c r="S16">
-        <v>4.255710204595523</v>
+        <v>4.2557102045955233</v>
       </c>
       <c r="T16">
-        <v>5.12371839834943</v>
+        <v>5.1237183983494301</v>
       </c>
       <c r="U16">
-        <v>1.633880425137357</v>
+        <v>1.6338804251373571</v>
       </c>
       <c r="V16">
-        <v>234.7806366747039</v>
+        <v>234.78063667470391</v>
       </c>
       <c r="W16">
-        <v>136.1879835265429</v>
+        <v>136.18798352654289</v>
       </c>
       <c r="X16">
-        <v>525.0362706231768</v>
+        <v>525.03627062317685</v>
       </c>
       <c r="Y16">
-        <v>130.9676747290407</v>
+        <v>130.96767472904071</v>
       </c>
       <c r="Z16">
         <v>1.039859521124602</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1842,19 +1931,19 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>498.9948395090228</v>
+        <v>498.99483950902282</v>
       </c>
       <c r="H17">
-        <v>70.72206369383105</v>
+        <v>70.722063693831046</v>
       </c>
       <c r="I17">
-        <v>428.2727758151918</v>
+        <v>428.27277581519178</v>
       </c>
       <c r="J17">
         <v>0.08</v>
       </c>
       <c r="K17">
-        <v>437.3962102547087</v>
+        <v>437.39621025470871</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -1863,13 +1952,13 @@
         <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.9791414872245827</v>
+        <v>0.97914148722458272</v>
       </c>
       <c r="O17">
         <v>520.6390650979331</v>
       </c>
       <c r="P17">
-        <v>83.24285484322451</v>
+        <v>83.242854843224507</v>
       </c>
       <c r="Q17">
         <v>1.833294730882407</v>
@@ -1881,28 +1970,28 @@
         <v>6.25445950980993</v>
       </c>
       <c r="T17">
-        <v>7.055716610155272</v>
+        <v>7.0557166101552724</v>
       </c>
       <c r="U17">
         <v>1.953838154938083</v>
       </c>
       <c r="V17">
-        <v>290.0933093742233</v>
+        <v>290.09330937422328</v>
       </c>
       <c r="W17">
         <v>108.0217304751238</v>
       </c>
       <c r="X17">
-        <v>536.2945062903156</v>
+        <v>536.29450629031555</v>
       </c>
       <c r="Y17">
-        <v>98.89829603560685</v>
+        <v>98.898296035606847</v>
       </c>
       <c r="Z17">
         <v>1.092250673724775</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,19 +2011,19 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>478.2942802115296</v>
+        <v>478.29428021152961</v>
       </c>
       <c r="H18">
-        <v>72.7147927601816</v>
+        <v>72.714792760181595</v>
       </c>
       <c r="I18">
-        <v>405.579487451348</v>
+        <v>405.57948745134797</v>
       </c>
       <c r="J18">
         <v>0.1</v>
       </c>
       <c r="K18">
-        <v>425.7708876236239</v>
+        <v>425.77088762362388</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -1943,46 +2032,46 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.9525768417728812</v>
+        <v>0.95257684177288116</v>
       </c>
       <c r="O18">
-        <v>481.9863823675741</v>
+        <v>481.98638236757409</v>
       </c>
       <c r="P18">
-        <v>56.21549474395007</v>
+        <v>56.215494743950067</v>
       </c>
       <c r="Q18">
-        <v>2.148723435214937</v>
+        <v>2.1487234352149369</v>
       </c>
       <c r="R18">
         <v>304.9793366450964</v>
       </c>
       <c r="S18">
-        <v>8.573906261306107</v>
+        <v>8.5739062613061066</v>
       </c>
       <c r="T18">
-        <v>6.577675078975706</v>
+        <v>6.5776750789757061</v>
       </c>
       <c r="U18">
         <v>1.883681351438298</v>
       </c>
       <c r="V18">
-        <v>268.6079883552933</v>
+        <v>268.60798835529329</v>
       </c>
       <c r="W18">
-        <v>150.5814976896257</v>
+        <v>150.58149768962571</v>
       </c>
       <c r="X18">
-        <v>556.1609851409737</v>
+        <v>556.16098514097371</v>
       </c>
       <c r="Y18">
         <v>130.3900975173498</v>
       </c>
       <c r="Z18">
-        <v>1.154853785346616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>1.1548537853466161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2002,19 +2091,19 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>505.2828106477805</v>
+        <v>505.28281064778048</v>
       </c>
       <c r="H19">
-        <v>95.11544537217522</v>
+        <v>95.115445372175216</v>
       </c>
       <c r="I19">
-        <v>410.1673652756053</v>
+        <v>410.16736527560528</v>
       </c>
       <c r="J19">
         <v>0.1</v>
       </c>
       <c r="K19">
-        <v>419.3183567176588</v>
+        <v>419.31835671765879</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -2023,31 +2112,31 @@
         <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.9781765064766406</v>
+        <v>0.97817650647664056</v>
       </c>
       <c r="O19">
-        <v>493.3585999816748</v>
+        <v>493.35859998167479</v>
       </c>
       <c r="P19">
         <v>74.04024326401597</v>
       </c>
       <c r="Q19">
-        <v>1.896627519682138</v>
+        <v>1.8966275196821381</v>
       </c>
       <c r="R19">
         <v>278.8915937791661</v>
       </c>
       <c r="S19">
-        <v>6.663384373582282</v>
+        <v>6.6633843735822822</v>
       </c>
       <c r="T19">
-        <v>5.312310831018769</v>
+        <v>5.3123108310187694</v>
       </c>
       <c r="U19">
         <v>1.670026925337726</v>
       </c>
       <c r="V19">
-        <v>251.3220104885831</v>
+        <v>251.32201048858309</v>
       </c>
       <c r="W19">
         <v>125.3170824798049</v>
@@ -2059,10 +2148,10 @@
         <v>116.1660910377514</v>
       </c>
       <c r="Z19">
-        <v>1.078775065600509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>1.0787750656005091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2082,19 +2171,19 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>506.4146017505308</v>
+        <v>506.41460175053078</v>
       </c>
       <c r="H20">
         <v>75.3724417885729</v>
       </c>
       <c r="I20">
-        <v>431.042159961958</v>
+        <v>431.04215996195802</v>
       </c>
       <c r="J20">
         <v>0.06</v>
       </c>
       <c r="K20">
-        <v>454.7157308250289</v>
+        <v>454.71573082502891</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2103,46 +2192,46 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.9479376470655239</v>
+        <v>0.94793764706552386</v>
       </c>
       <c r="O20">
-        <v>531.2647324929367</v>
+        <v>531.26473249293667</v>
       </c>
       <c r="P20">
-        <v>76.54900166790794</v>
+        <v>76.549001667907945</v>
       </c>
       <c r="Q20">
-        <v>1.937329371155674</v>
+        <v>1.9373293711556741</v>
       </c>
       <c r="R20">
         <v>306.415101561146</v>
       </c>
       <c r="S20">
-        <v>6.940191523303192</v>
+        <v>6.9401915233031923</v>
       </c>
       <c r="T20">
         <v>6.718829717246968</v>
       </c>
       <c r="U20">
-        <v>1.904913990150121</v>
+        <v>1.9049139901501211</v>
       </c>
       <c r="V20">
-        <v>287.4641411271298</v>
+        <v>287.46414112712978</v>
       </c>
       <c r="W20">
         <v>129.5773762140976</v>
       </c>
       <c r="X20">
-        <v>560.6195361760556</v>
+        <v>560.61953617605559</v>
       </c>
       <c r="Y20">
         <v>105.9038053510267</v>
       </c>
       <c r="Z20">
-        <v>1.223538434569022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>1.2235384345690219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>435.1089354474997</v>
+        <v>435.10893544749968</v>
       </c>
       <c r="H21">
-        <v>85.48738362826192</v>
+        <v>85.487383628261924</v>
       </c>
       <c r="I21">
-        <v>349.6215518192378</v>
+        <v>349.62155181923782</v>
       </c>
       <c r="J21">
         <v>0.08</v>
       </c>
       <c r="K21">
-        <v>362.093228494575</v>
+        <v>362.09322849457499</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -2183,10 +2272,10 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.9655567249153236</v>
+        <v>0.96555672491532363</v>
       </c>
       <c r="O21">
-        <v>476.973472161071</v>
+        <v>476.97347216107102</v>
       </c>
       <c r="P21">
         <v>114.880243666496</v>
@@ -2198,22 +2287,22 @@
         <v>198.5530854525156</v>
       </c>
       <c r="S21">
-        <v>4.15191905011755</v>
+        <v>4.1519190501175496</v>
       </c>
       <c r="T21">
-        <v>5.089744439244409</v>
+        <v>5.0897444392444093</v>
       </c>
       <c r="U21">
         <v>1.627227620902028</v>
       </c>
       <c r="V21">
-        <v>210.5141199406821</v>
+        <v>210.51411994068209</v>
       </c>
       <c r="W21">
-        <v>127.3519203418333</v>
+        <v>127.35192034183331</v>
       </c>
       <c r="X21">
-        <v>476.9734721610711</v>
+        <v>476.97347216107107</v>
       </c>
       <c r="Y21">
         <v>114.8802436664961</v>
@@ -2222,7 +2311,7 @@
         <v>1.108562414887831</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,13 +2331,13 @@
         <v>5</v>
       </c>
       <c r="G22">
-        <v>559.526617680234</v>
+        <v>559.52661768023404</v>
       </c>
       <c r="H22">
-        <v>40.05137373644595</v>
+        <v>40.051373736445953</v>
       </c>
       <c r="I22">
-        <v>519.4752439437881</v>
+        <v>519.47524394378809</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,46 +2352,46 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O22">
-        <v>559.526617680234</v>
+        <v>559.52661768023404</v>
       </c>
       <c r="P22">
-        <v>40.05137373644595</v>
+        <v>40.051373736445953</v>
       </c>
       <c r="Q22">
-        <v>2.636928127207449</v>
+        <v>2.6369281272074492</v>
       </c>
       <c r="R22">
-        <v>413.8626500048561</v>
+        <v>413.86265000485611</v>
       </c>
       <c r="S22">
-        <v>13.97022287829983</v>
+        <v>13.970222878299831</v>
       </c>
       <c r="T22">
-        <v>13.97022287829983</v>
+        <v>13.970222878299831</v>
       </c>
       <c r="U22">
-        <v>2.636928127207449</v>
+        <v>2.6369281272074492</v>
       </c>
       <c r="V22">
-        <v>413.8626500048561</v>
+        <v>413.86265000485611</v>
       </c>
       <c r="W22">
-        <v>40.05137373644595</v>
+        <v>40.051373736445953</v>
       </c>
       <c r="X22">
-        <v>559.526617680234</v>
+        <v>559.52661768023404</v>
       </c>
       <c r="Y22">
-        <v>40.05137373644584</v>
+        <v>40.051373736445839</v>
       </c>
       <c r="Z22">
-        <v>1.000000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>1.0000000000000031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2322,19 +2411,19 @@
         <v>5</v>
       </c>
       <c r="G23">
-        <v>488.2406132899753</v>
+        <v>488.24061328997527</v>
       </c>
       <c r="H23">
         <v>33.38598010632127</v>
       </c>
       <c r="I23">
-        <v>454.854633183654</v>
+        <v>454.85463318365402</v>
       </c>
       <c r="J23">
         <v>0.1</v>
       </c>
       <c r="K23">
-        <v>463.3278609220583</v>
+        <v>463.32786092205828</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2343,46 +2432,46 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.9817122421225828</v>
+        <v>0.98171224212258279</v>
       </c>
       <c r="O23">
-        <v>493.0456122075747</v>
+        <v>493.04561220757472</v>
       </c>
       <c r="P23">
-        <v>29.71775128551649</v>
+        <v>29.717751285516488</v>
       </c>
       <c r="Q23">
-        <v>2.808857135807515</v>
+        <v>2.8088571358075152</v>
       </c>
       <c r="R23">
-        <v>379.8549431635823</v>
+        <v>379.85494316358228</v>
       </c>
       <c r="S23">
-        <v>16.59094618131049</v>
+        <v>16.590946181310489</v>
       </c>
       <c r="T23">
-        <v>14.62412101532201</v>
+        <v>14.624121015322009</v>
       </c>
       <c r="U23">
         <v>2.682672289795307</v>
       </c>
       <c r="V23">
-        <v>365.2909894847685</v>
+        <v>365.29098948476849</v>
       </c>
       <c r="W23">
-        <v>52.18370731919129</v>
+        <v>52.183707319191292</v>
       </c>
       <c r="X23">
         <v>507.0383405028453</v>
       </c>
       <c r="Y23">
-        <v>43.71047958078702</v>
+        <v>43.710479580787023</v>
       </c>
       <c r="Z23">
-        <v>1.193848885202547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>1.1938488852025471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2402,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="G24">
-        <v>489.5528268607868</v>
+        <v>489.55282686078681</v>
       </c>
       <c r="H24">
         <v>30.66928322568435</v>
@@ -2414,7 +2503,7 @@
         <v>0.1</v>
       </c>
       <c r="K24">
-        <v>468.524481235491</v>
+        <v>468.52448123549101</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2423,46 +2512,46 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.9794227666077009</v>
+        <v>0.97942276660770089</v>
       </c>
       <c r="O24">
-        <v>499.7443452506243</v>
+        <v>499.74434525062429</v>
       </c>
       <c r="P24">
         <v>31.21986401513325</v>
       </c>
       <c r="Q24">
-        <v>2.773042098779568</v>
+        <v>2.7730420987795679</v>
       </c>
       <c r="R24">
-        <v>381.9504840033532</v>
+        <v>381.95048400335321</v>
       </c>
       <c r="S24">
-        <v>16.00725566928743</v>
+        <v>16.007255669287431</v>
       </c>
       <c r="T24">
         <v>15.96231719073255</v>
       </c>
       <c r="U24">
-        <v>2.770230768872251</v>
+        <v>2.7702307688722509</v>
       </c>
       <c r="V24">
-        <v>373.922551584054</v>
+        <v>373.92255158405402</v>
       </c>
       <c r="W24">
-        <v>64.7292407211242</v>
+        <v>64.729240721124199</v>
       </c>
       <c r="X24">
         <v>523.6127843562266</v>
       </c>
       <c r="Y24">
-        <v>55.08830312073565</v>
+        <v>55.088303120735652</v>
       </c>
       <c r="Z24">
-        <v>1.175008795955445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>1.1750087959554449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2485,16 +2574,16 @@
         <v>467.4847270875602</v>
       </c>
       <c r="H25">
-        <v>24.76446078575439</v>
+        <v>24.764460785754391</v>
       </c>
       <c r="I25">
-        <v>442.7202663018058</v>
+        <v>442.72026630180579</v>
       </c>
       <c r="J25">
         <v>0.1</v>
       </c>
       <c r="K25">
-        <v>444.7689022907793</v>
+        <v>444.76890229077929</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2503,19 +2592,19 @@
         <v>0.1</v>
       </c>
       <c r="N25">
-        <v>0.9953939315936389</v>
+        <v>0.99539393159363887</v>
       </c>
       <c r="O25">
-        <v>491.8313005742151</v>
+        <v>491.83130057421511</v>
       </c>
       <c r="P25">
-        <v>47.06239828343566</v>
+        <v>47.062398283435662</v>
       </c>
       <c r="Q25">
         <v>2.346661428432407</v>
       </c>
       <c r="R25">
-        <v>334.3293875095175</v>
+        <v>334.32938750951752</v>
       </c>
       <c r="S25">
         <v>10.45062127119269</v>
@@ -2524,25 +2613,25 @@
         <v>18.87724231639552</v>
       </c>
       <c r="U25">
-        <v>2.937957086298769</v>
+        <v>2.9379570862987689</v>
       </c>
       <c r="V25">
-        <v>369.9633432479307</v>
+        <v>369.96334324793071</v>
       </c>
       <c r="W25">
-        <v>54.78881275295407</v>
+        <v>54.788812752954072</v>
       </c>
       <c r="X25">
-        <v>497.5090790547599</v>
+        <v>497.50907905475992</v>
       </c>
       <c r="Y25">
-        <v>52.74017676398057</v>
+        <v>52.740176763980571</v>
       </c>
       <c r="Z25">
         <v>1.038843934826791</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,19 +2651,19 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <v>476.101568675695</v>
+        <v>476.10156867569498</v>
       </c>
       <c r="H26">
-        <v>33.863848803767</v>
+        <v>33.863848803766999</v>
       </c>
       <c r="I26">
-        <v>442.237719871928</v>
+        <v>442.23771987192799</v>
       </c>
       <c r="J26">
         <v>0.08</v>
       </c>
       <c r="K26">
-        <v>446.7929775144167</v>
+        <v>446.79297751441669</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -2583,46 +2672,46 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.9898045451210304</v>
+        <v>0.98980454512103044</v>
       </c>
       <c r="O26">
-        <v>471.7270254050334</v>
+        <v>471.72702540503337</v>
       </c>
       <c r="P26">
-        <v>24.93404789061673</v>
+        <v>24.934047890616728</v>
       </c>
       <c r="Q26">
-        <v>2.940166227662251</v>
+        <v>2.9401662276622509</v>
       </c>
       <c r="R26">
-        <v>373.4827319875121</v>
+        <v>373.48273198751212</v>
       </c>
       <c r="S26">
-        <v>18.9189909105194</v>
+        <v>18.918990910519401</v>
       </c>
       <c r="T26">
-        <v>14.05928698284094</v>
+        <v>14.059286982840939</v>
       </c>
       <c r="U26">
         <v>2.643283172638629</v>
       </c>
       <c r="V26">
-        <v>352.725978168152</v>
+        <v>352.72597816815198</v>
       </c>
       <c r="W26">
-        <v>43.01471838991324</v>
+        <v>43.014718389913241</v>
       </c>
       <c r="X26">
-        <v>485.2524382618413</v>
+        <v>485.25243826184129</v>
       </c>
       <c r="Y26">
-        <v>38.45946074742454</v>
+        <v>38.459460747424536</v>
       </c>
       <c r="Z26">
         <v>1.118443097067962</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2642,19 +2731,19 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <v>506.2968277955796</v>
+        <v>506.29682779557959</v>
       </c>
       <c r="H27">
-        <v>21.37586284103526</v>
+        <v>21.375862841035261</v>
       </c>
       <c r="I27">
-        <v>484.9209649545444</v>
+        <v>484.92096495454439</v>
       </c>
       <c r="J27">
         <v>0.1</v>
       </c>
       <c r="K27">
-        <v>496.735865126776</v>
+        <v>496.73586512677599</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -2663,7 +2752,7 @@
         <v>0.1</v>
       </c>
       <c r="N27">
-        <v>0.9762149242652002</v>
+        <v>0.97621492426520018</v>
       </c>
       <c r="O27">
         <v>522.9145631738611</v>
@@ -2675,34 +2764,34 @@
         <v>2.99447206316484</v>
       </c>
       <c r="R27">
-        <v>418.3444851747516</v>
+        <v>418.34448517475158</v>
       </c>
       <c r="S27">
-        <v>19.97481166685007</v>
+        <v>19.974811666850069</v>
       </c>
       <c r="T27">
-        <v>23.6854451939896</v>
+        <v>23.685445193989601</v>
       </c>
       <c r="U27">
-        <v>3.164860732652077</v>
+        <v>3.1648607326520768</v>
       </c>
       <c r="V27">
-        <v>417.2693360223952</v>
+        <v>417.26933602239518</v>
       </c>
       <c r="W27">
-        <v>52.04230671958283</v>
+        <v>52.042306719582832</v>
       </c>
       <c r="X27">
-        <v>536.9632716741272</v>
+        <v>536.96327167412721</v>
       </c>
       <c r="Y27">
-        <v>40.22740654735117</v>
+        <v>40.227406547351173</v>
       </c>
       <c r="Z27">
-        <v>1.293702756063195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>1.2937027560631951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,19 +2811,19 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>526.9397122380273</v>
+        <v>526.93971223802725</v>
       </c>
       <c r="H28">
-        <v>28.7845331511256</v>
+        <v>28.784533151125601</v>
       </c>
       <c r="I28">
-        <v>498.1551790869017</v>
+        <v>498.15517908690168</v>
       </c>
       <c r="J28">
         <v>0.1</v>
       </c>
       <c r="K28">
-        <v>502.3487051380018</v>
+        <v>502.34870513800178</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -2746,43 +2835,43 @@
         <v>0.991652161121928</v>
       </c>
       <c r="O28">
-        <v>543.2709599532117</v>
+        <v>543.27095995321167</v>
       </c>
       <c r="P28">
-        <v>40.92225481520988</v>
+        <v>40.922254815209882</v>
       </c>
       <c r="Q28">
-        <v>2.585934158334515</v>
+        <v>2.5859341583345148</v>
       </c>
       <c r="R28">
-        <v>396.5264485752814</v>
+        <v>396.52644857528139</v>
       </c>
       <c r="S28">
         <v>13.27568489093348</v>
       </c>
       <c r="T28">
-        <v>18.30634908933452</v>
+        <v>18.306349089334521</v>
       </c>
       <c r="U28">
-        <v>2.907247944448333</v>
+        <v>2.9072479444483328</v>
       </c>
       <c r="V28">
         <v>414.4714042513869</v>
       </c>
       <c r="W28">
-        <v>51.33320385723351</v>
+        <v>51.333203857233507</v>
       </c>
       <c r="X28">
         <v>549.4883829441352</v>
       </c>
       <c r="Y28">
-        <v>47.13967780613336</v>
+        <v>47.139677806133363</v>
       </c>
       <c r="Z28">
-        <v>1.088959582378701</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>1.0889595823787011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,13 +2891,13 @@
         <v>5</v>
       </c>
       <c r="G29">
-        <v>474.5178425703899</v>
+        <v>474.51784257038992</v>
       </c>
       <c r="H29">
-        <v>32.82774584629708</v>
+        <v>32.827745846297077</v>
       </c>
       <c r="I29">
-        <v>441.6900967240928</v>
+        <v>441.69009672409283</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -2823,46 +2912,46 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>0.9659230245275706</v>
+        <v>0.96592302452757062</v>
       </c>
       <c r="O29">
-        <v>485.9874091595764</v>
+        <v>485.98740915957637</v>
       </c>
       <c r="P29">
-        <v>28.71484653470094</v>
+        <v>28.714846534700939</v>
       </c>
       <c r="Q29">
-        <v>2.828768426613568</v>
+        <v>2.8287684266135682</v>
       </c>
       <c r="R29">
-        <v>376.0449113724594</v>
+        <v>376.04491137245941</v>
       </c>
       <c r="S29">
-        <v>16.92460409190335</v>
+        <v>16.924604091903351</v>
       </c>
       <c r="T29">
         <v>14.4547799532789</v>
       </c>
       <c r="U29">
-        <v>2.671025152473084</v>
+        <v>2.6710251524730841</v>
       </c>
       <c r="V29">
-        <v>354.0063618696395</v>
+        <v>354.00636186963948</v>
       </c>
       <c r="W29">
-        <v>51.53626738356866</v>
+        <v>51.536267383568664</v>
       </c>
       <c r="X29">
-        <v>493.2263641076614</v>
+        <v>493.22636410766142</v>
       </c>
       <c r="Y29">
-        <v>35.95380148278582</v>
+        <v>35.953801482785821</v>
       </c>
       <c r="Z29">
         <v>1.433402456990355</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,19 +2971,19 @@
         <v>5</v>
       </c>
       <c r="G30">
-        <v>519.8803629024583</v>
+        <v>519.88036290245827</v>
       </c>
       <c r="H30">
-        <v>48.92923972590732</v>
+        <v>48.929239725907323</v>
       </c>
       <c r="I30">
-        <v>470.9511231765509</v>
+        <v>470.95112317655088</v>
       </c>
       <c r="J30">
         <v>0.1</v>
       </c>
       <c r="K30">
-        <v>481.2265718993983</v>
+        <v>481.22657189939832</v>
       </c>
       <c r="L30">
         <v>5</v>
@@ -2903,46 +2992,46 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.9786473787548967</v>
+        <v>0.97864737875489671</v>
       </c>
       <c r="O30">
-        <v>519.8803629024582</v>
+        <v>519.88036290245816</v>
       </c>
       <c r="P30">
-        <v>38.65379100305991</v>
+        <v>38.653791003059908</v>
       </c>
       <c r="Q30">
-        <v>2.598953858079409</v>
+        <v>2.5989538580794092</v>
       </c>
       <c r="R30">
-        <v>380.7671526426005</v>
+        <v>380.76715264260048</v>
       </c>
       <c r="S30">
-        <v>13.44966041911137</v>
+        <v>13.449660419111369</v>
       </c>
       <c r="T30">
-        <v>10.62514696354845</v>
+        <v>10.625146963548451</v>
       </c>
       <c r="U30">
         <v>2.363223546578205</v>
       </c>
       <c r="V30">
-        <v>355.3203917401171</v>
+        <v>355.32039174011709</v>
       </c>
       <c r="W30">
-        <v>58.80344760765217</v>
+        <v>58.803447607652167</v>
       </c>
       <c r="X30">
-        <v>529.7545707842031</v>
+        <v>529.75457078420311</v>
       </c>
       <c r="Y30">
-        <v>48.52799888480484</v>
+        <v>48.527998884804838</v>
       </c>
       <c r="Z30">
         <v>1.211742683790425</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2962,19 +3051,19 @@
         <v>5</v>
       </c>
       <c r="G31">
-        <v>483.3668853175452</v>
+        <v>483.36688531754521</v>
       </c>
       <c r="H31">
-        <v>44.38760698213287</v>
+        <v>44.387606982132873</v>
       </c>
       <c r="I31">
-        <v>438.9792783354123</v>
+        <v>438.97927833541229</v>
       </c>
       <c r="J31">
         <v>0.1</v>
       </c>
       <c r="K31">
-        <v>438.9792783354123</v>
+        <v>438.97927833541229</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -2986,43 +3075,86 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>483.3668853175453</v>
+        <v>483.36688531754533</v>
       </c>
       <c r="P31">
-        <v>44.38760698213287</v>
+        <v>44.387606982132873</v>
       </c>
       <c r="Q31">
-        <v>2.387815653783227</v>
+        <v>2.3878156537832269</v>
       </c>
       <c r="R31">
-        <v>332.9898555494979</v>
+        <v>332.98985554949792</v>
       </c>
       <c r="S31">
-        <v>10.88968111103878</v>
+        <v>10.889681111038779</v>
       </c>
       <c r="T31">
-        <v>10.88968111103878</v>
+        <v>10.889681111038779</v>
       </c>
       <c r="U31">
-        <v>2.387815653783227</v>
+        <v>2.3878156537832269</v>
       </c>
       <c r="V31">
         <v>332.9898555494978</v>
       </c>
       <c r="W31">
-        <v>45.40193680238514</v>
+        <v>45.401936802385137</v>
       </c>
       <c r="X31">
-        <v>484.3812151377975</v>
+        <v>484.38121513779748</v>
       </c>
       <c r="Y31">
-        <v>45.40193680238514</v>
+        <v>45.401936802385137</v>
       </c>
       <c r="Z31">
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>8.9333333333333362E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.96738324832391775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.1536767793153593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.88526948802998118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>1.4365009079454329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>